--- a/biology/Botanique/Liste_d'incendies_en_Californie/Liste_d'incendies_en_Californie.xlsx
+++ b/biology/Botanique/Liste_d'incendies_en_Californie/Liste_d'incendies_en_Californie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27incendies_en_Californie</t>
+          <t>Liste_d'incendies_en_Californie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous suit une liste non exhaustive de grands incendies qui ont eu lieu en Californie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27incendies_en_Californie</t>
+          <t>Liste_d'incendies_en_Californie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Contexte et impact</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Californie rencontre des conditions météorologiques favorables aux incendies à partir de la fin du printemps jusqu'en automne.
-Les coûts de la lutte et des dégâts liés à ces incendies s'élèvent annuellement à environ trois milliards de dollars. Ce montant a triplé depuis les années 1990[1].
+Les coûts de la lutte et des dégâts liés à ces incendies s'élèvent annuellement à environ trois milliards de dollars. Ce montant a triplé depuis les années 1990.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27incendies_en_Californie</t>
+          <t>Liste_d'incendies_en_Californie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Avant l'an 2000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Santiago (1889) : 310 000 acres (130 000 ha).
 Berkeley (1923) : 640 structures détruites, dont 584 maisons
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27incendies_en_Californie</t>
+          <t>Liste_d'incendies_en_Californie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Après l'an 2000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Incendies d'octobre 2007
 Incendies de 2015
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27incendies_en_Californie</t>
+          <t>Liste_d'incendies_en_Californie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,9 +635,11 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude scientifique menée en 2015 vise à déterminer si l'augmentation des risques d'incendie en Californie est attribuable au changement climatique[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude scientifique menée en 2015 vise à déterminer si l'augmentation des risques d'incendie en Californie est attribuable au changement climatique,.
 </t>
         </is>
       </c>
